--- a/biology/Botanique/Mon_amie_la_rose_(chanson)/Mon_amie_la_rose_(chanson).xlsx
+++ b/biology/Botanique/Mon_amie_la_rose_(chanson)/Mon_amie_la_rose_(chanson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mon amie la rose est une chanson de Cécile Caulier, interprétée par Françoise Hardy dans son album Mon amie la rose de 1964. Mise en musique sur un boléro arrangé et déposé par Jacques Lacome d'Estalenx, la composition brode le thème classique « Seule la rose est assez fragile pour exprimer l'éternité »[1] et a été comparée à un poème de Pierre de Ronsard.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mon amie la rose est une chanson de Cécile Caulier, interprétée par Françoise Hardy dans son album Mon amie la rose de 1964. Mise en musique sur un boléro arrangé et déposé par Jacques Lacome d'Estalenx, la composition brode le thème classique « Seule la rose est assez fragile pour exprimer l'éternité » et a été comparée à un poème de Pierre de Ronsard.
 Mon amie la rose est devenue l'une des chansons les plus connues et les plus populaires du répertoire de Françoise Hardy et figure régulièrement au palmarès de la chanson française.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Destin d'un tube</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La chanson, écrite dans l'émotion inspirée par la nouvelle de la mort brutale de l'actrice Sylvia Lopez à l'âge de vingt-six ans, est présentée par Cécile Caulier au Petit Conservatoire de la chanson de Mireille. Un an plus tard, Françoise Hardy, devenue soudainement une vedette, propose à l'auteur qui ne trouve pas d'interprète de l'enregistrer[2],[3]. Le single s'est vendu à 75 000 exemplaires en France[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chanson, écrite dans l'émotion inspirée par la nouvelle de la mort brutale de l'actrice Sylvia Lopez à l'âge de vingt-six ans, est présentée par Cécile Caulier au Petit Conservatoire de la chanson de Mireille. Un an plus tard, Françoise Hardy, devenue soudainement une vedette, propose à l'auteur qui ne trouve pas d'interprète de l'enregistrer,. Le single s'est vendu à 75 000 exemplaires en France.
 Reprise dès 1965 par Janie Jurka et Robert Tardiveau, en 1966 par Diane Denoir et Éliane Thibault, en 1981 en duo par Jacques Dutronc, la ballade a connu de multiples interprétations, dont la version orientalisante de Natacha Atlas qui figure sur l'album Gedida édité en 1999, et celles de Ngọc Lan en vietnamien, de White Hinterland (en) en français.
 Elle a été l'occasion d'une série de procès intentés par son auteur, restée méconnue jusqu'à sa mort en 2009 en dépit de la notoriété qu'elle aurait pu attendre d'un tube qui a traversé les décennies.
 </t>
@@ -547,13 +561,52 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Françoise Hardy
-Disques Vogue (V.45-1252), France, 1964, 45 tours single.
+          <t>Françoise Hardy</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Disques Vogue (V.45-1252), France, 1964, 45 tours single.
 Dans les années soixante, les 45 tours 2 titres ne se trouvaient pas en vente chez les disquaires de France ; ils étaient uniquement destinés aux exploitants de bar et de café possédant un juke-box..
 Mon amie la rose (paroles de Cécile Caulier, musique de Cécile Caulier et Jacques Lacome), 2 min 15 s.
-Je n'attends plus personne (Non aspetto nessuno), (adaptation du texte de Giovanni Meccia par Françoise Hardy, musique d'Enrico Ciacci), 3 min 14 s.
-Natacha Atlas
-Mantra Recordings (7243-8-95712-2-6), France, 1999, CD single.
+Je n'attends plus personne (Non aspetto nessuno), (adaptation du texte de Giovanni Meccia par Françoise Hardy, musique d'Enrico Ciacci), 3 min 14 s.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mon_amie_la_rose_(chanson)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Mon_amie_la_rose_(chanson)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Interprétations</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Natacha Atlas</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mantra Recordings (7243-8-95712-2-6), France, 1999, CD single.
 Mon amie la rose (version de l'album Gedida), 4 min 47 s.
 Mon amie la rose (radio remix), arrangement d'André Manoukian, 3 min 25 s.</t>
         </is>
